--- a/Calculs a la mano.xlsx
+++ b/Calculs a la mano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7009dbc6f400b33/Documents/Travail/ESILV/S9/Big Data Structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7009dbc6f400b33/Documents/Travail/ESILV/S9/Big Data Structure/big_data_structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="683" documentId="8_{C6A58793-CBB7-451A-85AC-19D981C38815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C6567A4-9D89-4A11-96ED-B47301FA3DAF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC06A178-667E-4206-997B-DB84C90162B7}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{EC06A178-667E-4206-997B-DB84C90162B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,6 +442,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,28 +808,28 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="25.21875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -875,7 +879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -911,7 +915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -965,7 +969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>1.601874828338623E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>1.5459954738616943E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>2.8312206268310547</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>2.4586915969848633E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>1326.2033462524414</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>4.76837158203125</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>0.10319054126739502</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>2.5618821382522583</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>1251.8007308244705</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>23.096799850463867</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>5379.3191909790039</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>1333.8637413196266</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>1333.9061535894871</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>1333.5336245596409</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>1354.0685422718525</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2164,7 +2168,7 @@
         <v>5386.9188077747822</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>

--- a/Calculs a la mano.xlsx
+++ b/Calculs a la mano.xlsx
@@ -442,10 +442,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,7 +804,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Calculs a la mano.xlsx
+++ b/Calculs a la mano.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7009dbc6f400b33/Documents/Travail/ESILV/S9/Big Data Structure/big_data_structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\A5_BigDataStructure\big_data_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="683" documentId="8_{C6A58793-CBB7-451A-85AC-19D981C38815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C6567A4-9D89-4A11-96ED-B47301FA3DAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46ADAE8-77DF-485F-B59C-4BA8F8ADEC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{EC06A178-667E-4206-997B-DB84C90162B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC06A178-667E-4206-997B-DB84C90162B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -804,10 +804,10 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
@@ -1833,7 +1833,7 @@
         <f>SUM(Table1[[#This Row],[Int/num]:[LongString]]) - 6 + Table1[[#This Row],[avg array length]]*(SUM(Table1[[#This Row],[array int]:[array date]]))</f>
         <v>240011</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <f>Table1[[#This Row],[Int/num]]*$B$2 + Table1[[#This Row],[String]]*$C$2 + Table1[[#This Row],[Date]]*$D$2 + Table1[[#This Row],[LongString]]*$E$2 + Table1[[#This Row],[array int]]*Table1[[#This Row],[avg array length]]*$G$2 + Table1[[#This Row],[array string]]*Table1[[#This Row],[avg array length]]*$H$2 + Table1[[#This Row],[array longstring]]*Table1[[#This Row],[avg array length]]*$I$2 + Table1[[#This Row],[array date]]*Table1[[#This Row],[avg array length]]*$J$2 + Table1[[#This Row],[keys]]*$K$2</f>
         <v>13441108</v>
       </c>
